--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1922673.928300586</v>
+        <v>1920129.706364559</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283195</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>175.6809662669685</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>11.36529914368128</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>37.11181591693632</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -741,10 +741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>79.59417408175848</v>
+        <v>36.39469600159785</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>187.5255871663199</v>
+        <v>66.4420838999049</v>
       </c>
       <c r="W4" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>50.50032331381778</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>157.7409587105194</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.28773869504416</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>99.45377603815237</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -975,25 +975,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7303505775365</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>33.85559031833734</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,13 +1026,13 @@
         <v>141.7193093041456</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>80.69266863634614</v>
       </c>
       <c r="V6" t="n">
-        <v>175.0613661001722</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>74.03593649473848</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>143.3991040965659</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>48.79207184097379</v>
+        <v>411.8302881234605</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>76.60428439787225</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>129.8916290734612</v>
       </c>
       <c r="T8" t="n">
-        <v>207.895202352076</v>
+        <v>54.39299565185888</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1215,19 +1215,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>131.0490433666393</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.4855929438821</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.29180769719208</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>47.84012920313564</v>
+        <v>137.1730436088542</v>
       </c>
       <c r="T9" t="n">
         <v>192.675990284458</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>56.85215741765418</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4333581046933</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.3785035421427</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6085557685651</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>107.2570757305864</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>196.8715076418045</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.290298616738</v>
       </c>
       <c r="U10" t="n">
-        <v>39.80934145511456</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,13 +1373,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>79.05856366754465</v>
       </c>
       <c r="G13" t="n">
-        <v>94.30373791808191</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784683</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>19.91555826189058</v>
       </c>
       <c r="G16" t="n">
-        <v>47.84205650381978</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>59.4528255976067</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012262</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>140.9271808900446</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>59.96838802184498</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,13 +2293,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>75.00788511617901</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2476,16 +2476,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>48.47457675531485</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2533,10 +2533,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365927</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>179.831980181939</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>39.52129633182953</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187871</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.5360100788478</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272947</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>14.92158678357709</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3424,13 +3424,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3439,10 +3439,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>191.6604102493268</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187871</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>6.600826611594925</v>
       </c>
     </row>
     <row r="41">
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>152.0575603057045</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4138,10 +4138,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609126</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>388.8228542207802</v>
+        <v>351.3361714764009</v>
       </c>
       <c r="C2" t="n">
-        <v>388.8228542207802</v>
+        <v>351.3361714764009</v>
       </c>
       <c r="D2" t="n">
-        <v>388.8228542207802</v>
+        <v>351.3361714764009</v>
       </c>
       <c r="E2" t="n">
-        <v>388.8228542207802</v>
+        <v>351.3361714764009</v>
       </c>
       <c r="F2" t="n">
-        <v>381.8773534715767</v>
+        <v>344.3906707271974</v>
       </c>
       <c r="G2" t="n">
-        <v>204.4218319897903</v>
+        <v>331.1605361513812</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123827</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020264</v>
+        <v>734.4611726020272</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201469</v>
+        <v>738.6222485201479</v>
       </c>
       <c r="S2" t="n">
-        <v>578.2426392372649</v>
+        <v>578.242639237266</v>
       </c>
       <c r="T2" t="n">
-        <v>388.8228542207802</v>
+        <v>388.822854220781</v>
       </c>
       <c r="U2" t="n">
-        <v>388.8228542207802</v>
+        <v>388.822854220781</v>
       </c>
       <c r="V2" t="n">
-        <v>388.8228542207802</v>
+        <v>351.3361714764009</v>
       </c>
       <c r="W2" t="n">
-        <v>388.8228542207802</v>
+        <v>351.3361714764009</v>
       </c>
       <c r="X2" t="n">
-        <v>388.8228542207802</v>
+        <v>351.3361714764009</v>
       </c>
       <c r="Y2" t="n">
-        <v>388.8228542207802</v>
+        <v>351.3361714764009</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>474.3057996261197</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="C3" t="n">
-        <v>474.3057996261197</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D3" t="n">
-        <v>325.3713899648685</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E3" t="n">
-        <v>166.133934959413</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F3" t="n">
-        <v>166.133934959413</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G3" t="n">
-        <v>166.133934959413</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772652</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017061</v>
+        <v>739.5989987017069</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843276</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="S3" t="n">
-        <v>722.9192922843276</v>
+        <v>598.8192732198768</v>
       </c>
       <c r="T3" t="n">
-        <v>722.9192922843276</v>
+        <v>409.3994882033918</v>
       </c>
       <c r="U3" t="n">
-        <v>722.9192922843276</v>
+        <v>219.9797031869068</v>
       </c>
       <c r="V3" t="n">
-        <v>722.9192922843276</v>
+        <v>219.9797031869068</v>
       </c>
       <c r="W3" t="n">
-        <v>642.5211366461878</v>
+        <v>183.2173839933736</v>
       </c>
       <c r="X3" t="n">
-        <v>642.5211366461878</v>
+        <v>183.2173839933736</v>
       </c>
       <c r="Y3" t="n">
-        <v>642.5211366461878</v>
+        <v>183.2173839933736</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>316.8755003619428</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="C4" t="n">
-        <v>316.8755003619428</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="D4" t="n">
-        <v>316.8755003619428</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="E4" t="n">
-        <v>316.8755003619428</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="F4" t="n">
         <v>169.9855528640325</v>
@@ -4480,58 +4480,58 @@
         <v>169.9855528640325</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K4" t="n">
         <v>106.7151088594234</v>
       </c>
       <c r="L4" t="n">
-        <v>279.6026869745584</v>
+        <v>118.7527324484196</v>
       </c>
       <c r="M4" t="n">
-        <v>465.2530182692151</v>
+        <v>285.9838492295956</v>
       </c>
       <c r="N4" t="n">
-        <v>587.3641452287294</v>
+        <v>471.6341805242525</v>
       </c>
       <c r="O4" t="n">
-        <v>750.1023486652796</v>
+        <v>634.3723839608027</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846273</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846273</v>
+        <v>615.9383389575124</v>
       </c>
       <c r="S4" t="n">
-        <v>746.7254979846273</v>
+        <v>426.5185539410274</v>
       </c>
       <c r="T4" t="n">
-        <v>746.7254979846273</v>
+        <v>426.5185539410274</v>
       </c>
       <c r="U4" t="n">
-        <v>746.7254979846273</v>
+        <v>426.5185539410274</v>
       </c>
       <c r="V4" t="n">
-        <v>557.3057129681425</v>
+        <v>359.4053378805174</v>
       </c>
       <c r="W4" t="n">
-        <v>367.8859279516578</v>
+        <v>359.4053378805174</v>
       </c>
       <c r="X4" t="n">
-        <v>316.8755003619428</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="Y4" t="n">
-        <v>316.8755003619428</v>
+        <v>169.9855528640325</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>960.2261395967332</v>
+        <v>723.0668590493766</v>
       </c>
       <c r="C5" t="n">
-        <v>591.2636226563216</v>
+        <v>723.0668590493766</v>
       </c>
       <c r="D5" t="n">
-        <v>591.2636226563216</v>
+        <v>364.8011604426261</v>
       </c>
       <c r="E5" t="n">
-        <v>205.4753700580773</v>
+        <v>364.8011604426261</v>
       </c>
       <c r="F5" t="n">
-        <v>46.14106833027991</v>
+        <v>357.8556596934226</v>
       </c>
       <c r="G5" t="n">
-        <v>33.72921106255854</v>
+        <v>345.4438024257013</v>
       </c>
       <c r="H5" t="n">
         <v>33.72921106255854</v>
@@ -4592,25 +4592,25 @@
         <v>1686.460553127927</v>
       </c>
       <c r="S5" t="n">
-        <v>1686.460553127927</v>
+        <v>1544.727438003256</v>
       </c>
       <c r="T5" t="n">
-        <v>1686.460553127927</v>
+        <v>1444.269078368759</v>
       </c>
       <c r="U5" t="n">
-        <v>1686.460553127927</v>
+        <v>1444.269078368759</v>
       </c>
       <c r="V5" t="n">
-        <v>1686.460553127927</v>
+        <v>1113.206191025188</v>
       </c>
       <c r="W5" t="n">
-        <v>1333.691897857813</v>
+        <v>1113.206191025188</v>
       </c>
       <c r="X5" t="n">
-        <v>960.2261395967332</v>
+        <v>1113.206191025188</v>
       </c>
       <c r="Y5" t="n">
-        <v>960.2261395967332</v>
+        <v>723.0668590493766</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>528.4155802027892</v>
+        <v>192.966666068014</v>
       </c>
       <c r="C6" t="n">
-        <v>353.9625509216622</v>
+        <v>192.966666068014</v>
       </c>
       <c r="D6" t="n">
-        <v>205.028141260411</v>
+        <v>192.966666068014</v>
       </c>
       <c r="E6" t="n">
-        <v>205.028141260411</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="F6" t="n">
-        <v>205.028141260411</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="G6" t="n">
-        <v>67.92677704067707</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H6" t="n">
-        <v>67.92677704067707</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I6" t="n">
         <v>33.72921106255854</v>
       </c>
       <c r="J6" t="n">
-        <v>121.7846078506383</v>
+        <v>59.04473788968937</v>
       </c>
       <c r="K6" t="n">
-        <v>243.2077001209171</v>
+        <v>180.4678301599682</v>
       </c>
       <c r="L6" t="n">
-        <v>452.7985733737478</v>
+        <v>390.0587034127988</v>
       </c>
       <c r="M6" t="n">
-        <v>716.738104869235</v>
+        <v>653.9982349082861</v>
       </c>
       <c r="N6" t="n">
-        <v>1002.071975302568</v>
+        <v>939.3321053416189</v>
       </c>
       <c r="O6" t="n">
-        <v>1240.876927054026</v>
+        <v>1356.731092240781</v>
       </c>
       <c r="P6" t="n">
-        <v>1413.205888007736</v>
+        <v>1621.182402866226</v>
       </c>
       <c r="Q6" t="n">
         <v>1686.460553127927</v>
@@ -4674,22 +4674,22 @@
         <v>1543.309735648992</v>
       </c>
       <c r="T6" t="n">
-        <v>1543.309735648992</v>
+        <v>1347.691013115832</v>
       </c>
       <c r="U6" t="n">
-        <v>1543.309735648992</v>
+        <v>1266.183267018513</v>
       </c>
       <c r="V6" t="n">
-        <v>1366.480072921546</v>
+        <v>1031.03115878677</v>
       </c>
       <c r="W6" t="n">
-        <v>1112.242716193344</v>
+        <v>776.7938020585689</v>
       </c>
       <c r="X6" t="n">
-        <v>904.3912159878112</v>
+        <v>568.942301853036</v>
       </c>
       <c r="Y6" t="n">
-        <v>696.6309172228573</v>
+        <v>361.1820030880821</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>890.6906211270904</v>
+        <v>330.7357979728046</v>
       </c>
       <c r="C7" t="n">
-        <v>721.7544381991835</v>
+        <v>330.7357979728046</v>
       </c>
       <c r="D7" t="n">
-        <v>571.6377987868477</v>
+        <v>180.6191585604689</v>
       </c>
       <c r="E7" t="n">
-        <v>423.7247052044546</v>
+        <v>180.6191585604689</v>
       </c>
       <c r="F7" t="n">
-        <v>276.8347577065442</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="G7" t="n">
-        <v>108.5129852996681</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H7" t="n">
         <v>33.72921106255854</v>
@@ -4747,28 +4747,28 @@
         <v>1293.13166510086</v>
       </c>
       <c r="R7" t="n">
-        <v>1293.13166510086</v>
+        <v>1175.471604442305</v>
       </c>
       <c r="S7" t="n">
-        <v>1293.13166510086</v>
+        <v>1175.471604442305</v>
       </c>
       <c r="T7" t="n">
-        <v>1293.13166510086</v>
+        <v>951.0604452177427</v>
       </c>
       <c r="U7" t="n">
-        <v>1293.13166510086</v>
+        <v>951.0604452177427</v>
       </c>
       <c r="V7" t="n">
-        <v>1293.13166510086</v>
+        <v>696.3759570118558</v>
       </c>
       <c r="W7" t="n">
-        <v>1293.13166510086</v>
+        <v>551.5283771163347</v>
       </c>
       <c r="X7" t="n">
-        <v>1293.13166510086</v>
+        <v>551.5283771163347</v>
       </c>
       <c r="Y7" t="n">
-        <v>1072.33908595733</v>
+        <v>330.7357979728046</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.642840514121</v>
+        <v>1288.72325355387</v>
       </c>
       <c r="C8" t="n">
-        <v>1248.680323573709</v>
+        <v>1288.72325355387</v>
       </c>
       <c r="D8" t="n">
-        <v>890.4146249669589</v>
+        <v>930.4575549471194</v>
       </c>
       <c r="E8" t="n">
-        <v>504.6263723687146</v>
+        <v>544.6693023488752</v>
       </c>
       <c r="F8" t="n">
-        <v>93.64046757910705</v>
+        <v>537.7238015996718</v>
       </c>
       <c r="G8" t="n">
-        <v>44.35554652761837</v>
+        <v>121.7336115759744</v>
       </c>
       <c r="H8" t="n">
-        <v>44.35554652761837</v>
+        <v>121.7336115759744</v>
       </c>
       <c r="I8" t="n">
-        <v>44.35554652761837</v>
+        <v>44.35554652761854</v>
       </c>
       <c r="J8" t="n">
-        <v>156.8927045872711</v>
+        <v>156.8927045872715</v>
       </c>
       <c r="K8" t="n">
-        <v>376.2952505159005</v>
+        <v>376.2952505159014</v>
       </c>
       <c r="L8" t="n">
-        <v>685.3852714985289</v>
+        <v>685.3852714985312</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.976912556945</v>
+        <v>1060.976912556948</v>
       </c>
       <c r="N8" t="n">
-        <v>1447.259827415491</v>
+        <v>1447.259827415495</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.680568975112</v>
+        <v>1798.680568975118</v>
       </c>
       <c r="P8" t="n">
-        <v>2064.109040631091</v>
+        <v>2064.109040631098</v>
       </c>
       <c r="Q8" t="n">
-        <v>2215.26202220813</v>
+        <v>2215.262022208138</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.777326380919</v>
+        <v>2217.777326380927</v>
       </c>
       <c r="S8" t="n">
-        <v>2217.777326380919</v>
+        <v>2086.573660650158</v>
       </c>
       <c r="T8" t="n">
-        <v>2007.782172489933</v>
+        <v>2031.631240799796</v>
       </c>
       <c r="U8" t="n">
-        <v>2007.782172489933</v>
+        <v>2031.631240799796</v>
       </c>
       <c r="V8" t="n">
-        <v>2007.782172489933</v>
+        <v>2031.631240799796</v>
       </c>
       <c r="W8" t="n">
-        <v>2007.782172489933</v>
+        <v>1678.862585529682</v>
       </c>
       <c r="X8" t="n">
-        <v>2007.782172489933</v>
+        <v>1678.862585529682</v>
       </c>
       <c r="Y8" t="n">
-        <v>1617.642840514121</v>
+        <v>1288.72325355387</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>673.5149984485672</v>
+        <v>583.2797313720926</v>
       </c>
       <c r="C9" t="n">
-        <v>499.0619691674402</v>
+        <v>408.8267020909656</v>
       </c>
       <c r="D9" t="n">
-        <v>350.1275595061889</v>
+        <v>276.4539310135521</v>
       </c>
       <c r="E9" t="n">
-        <v>190.8901045007334</v>
+        <v>276.4539310135521</v>
       </c>
       <c r="F9" t="n">
-        <v>44.35554652761837</v>
+        <v>276.4539310135521</v>
       </c>
       <c r="G9" t="n">
-        <v>44.35554652761837</v>
+        <v>139.5997967268025</v>
       </c>
       <c r="H9" t="n">
-        <v>44.35554652761837</v>
+        <v>44.35554652761854</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35554652761837</v>
+        <v>44.35554652761854</v>
       </c>
       <c r="J9" t="n">
-        <v>217.3941849412458</v>
+        <v>92.56405995424157</v>
       </c>
       <c r="K9" t="n">
-        <v>462.6427349937652</v>
+        <v>470.0740394137352</v>
       </c>
       <c r="L9" t="n">
-        <v>724.845710823442</v>
+        <v>732.2770152434128</v>
       </c>
       <c r="M9" t="n">
-        <v>1050.181084473548</v>
+        <v>1057.61238889352</v>
       </c>
       <c r="N9" t="n">
-        <v>1398.535762314302</v>
+        <v>1606.512277172799</v>
       </c>
       <c r="O9" t="n">
-        <v>1694.992440729455</v>
+        <v>1902.968955587953</v>
       </c>
       <c r="P9" t="n">
-        <v>1913.591994996784</v>
+        <v>2121.568509855282</v>
       </c>
       <c r="Q9" t="n">
-        <v>2217.777326380919</v>
+        <v>2217.777326380927</v>
       </c>
       <c r="R9" t="n">
-        <v>2217.777326380919</v>
+        <v>2217.777326380927</v>
       </c>
       <c r="S9" t="n">
-        <v>2169.453963549468</v>
+        <v>2079.218696472994</v>
       </c>
       <c r="T9" t="n">
-        <v>1974.831751140925</v>
+        <v>1884.59648406445</v>
       </c>
       <c r="U9" t="n">
-        <v>1746.731599399066</v>
+        <v>1656.496332322592</v>
       </c>
       <c r="V9" t="n">
-        <v>1511.579491167324</v>
+        <v>1421.344224090849</v>
       </c>
       <c r="W9" t="n">
-        <v>1257.342134439122</v>
+        <v>1167.106867362647</v>
       </c>
       <c r="X9" t="n">
-        <v>1049.490634233589</v>
+        <v>959.2553671571145</v>
       </c>
       <c r="Y9" t="n">
-        <v>841.7303354686353</v>
+        <v>751.4950683921606</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>472.0529378563064</v>
+        <v>248.671915659523</v>
       </c>
       <c r="C10" t="n">
-        <v>472.0529378563064</v>
+        <v>191.2454940255289</v>
       </c>
       <c r="D10" t="n">
-        <v>472.0529378563064</v>
+        <v>191.2454940255289</v>
       </c>
       <c r="E10" t="n">
-        <v>472.0529378563064</v>
+        <v>191.2454940255289</v>
       </c>
       <c r="F10" t="n">
-        <v>472.0529378563064</v>
+        <v>44.35554652761854</v>
       </c>
       <c r="G10" t="n">
-        <v>303.9384347202525</v>
+        <v>44.35554652761854</v>
       </c>
       <c r="H10" t="n">
-        <v>154.0611584150579</v>
+        <v>44.35554652761854</v>
       </c>
       <c r="I10" t="n">
-        <v>44.35554652761837</v>
+        <v>44.35554652761854</v>
       </c>
       <c r="J10" t="n">
-        <v>60.95254262692043</v>
+        <v>60.95254262692085</v>
       </c>
       <c r="K10" t="n">
-        <v>218.0633423274033</v>
+        <v>218.0633423274041</v>
       </c>
       <c r="L10" t="n">
-        <v>474.6375091918442</v>
+        <v>474.6375091918454</v>
       </c>
       <c r="M10" t="n">
-        <v>755.5481168921717</v>
+        <v>755.5481168921735</v>
       </c>
       <c r="N10" t="n">
-        <v>1035.213914629319</v>
+        <v>1035.213914629321</v>
       </c>
       <c r="O10" t="n">
-        <v>1277.514248546131</v>
+        <v>1277.514248546134</v>
       </c>
       <c r="P10" t="n">
-        <v>1461.323360659241</v>
+        <v>1461.323360659244</v>
       </c>
       <c r="Q10" t="n">
-        <v>1505.148182155969</v>
+        <v>1505.148182155973</v>
       </c>
       <c r="R10" t="n">
-        <v>1505.148182155969</v>
+        <v>1396.807701620027</v>
       </c>
       <c r="S10" t="n">
-        <v>1505.148182155969</v>
+        <v>1197.947592890931</v>
       </c>
       <c r="T10" t="n">
-        <v>1505.148182155969</v>
+        <v>974.4220387326102</v>
       </c>
       <c r="U10" t="n">
-        <v>1464.936726140701</v>
+        <v>974.4220387326102</v>
       </c>
       <c r="V10" t="n">
-        <v>1210.252237934815</v>
+        <v>719.7375505267233</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8350678978538</v>
+        <v>430.3203804897627</v>
       </c>
       <c r="X10" t="n">
-        <v>692.8455169998365</v>
+        <v>430.3203804897627</v>
       </c>
       <c r="Y10" t="n">
-        <v>472.0529378563064</v>
+        <v>430.3203804897627</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5021,10 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5036,31 +5036,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5121,25 +5121,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>506.2737913123343</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>802.9288273958734</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>633.9926444679666</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D13" t="n">
-        <v>483.8760050556308</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E13" t="n">
-        <v>335.9629114732377</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F13" t="n">
-        <v>189.0729639753273</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5230,19 +5230,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5261,7 +5261,7 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5273,16 +5273,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5318,10 +5318,10 @@
         <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>924.8344286397181</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2149.810879820876</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400712</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>365.9405071576781</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F16" t="n">
-        <v>365.9405071576781</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797186</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
         <v>2129.438138565707</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>809.0422355233313</v>
+        <v>762.5477693179113</v>
       </c>
       <c r="C19" t="n">
-        <v>640.1060525954244</v>
+        <v>593.6115863900044</v>
       </c>
       <c r="D19" t="n">
-        <v>489.9894131830887</v>
+        <v>443.4949469776686</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>295.5818533952755</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5692,31 +5692,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832662</v>
+        <v>2264.108249235167</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855603</v>
+        <v>2044.506784258109</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199801</v>
+        <v>1755.431557602306</v>
       </c>
       <c r="V19" t="n">
-        <v>1728.890000432079</v>
+        <v>1500.747069396419</v>
       </c>
       <c r="W19" t="n">
-        <v>1439.472830395119</v>
+        <v>1211.329899359459</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.483279497101</v>
+        <v>983.3403484614414</v>
       </c>
       <c r="Y19" t="n">
-        <v>990.6907003535711</v>
+        <v>762.5477693179113</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,49 +5911,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038327</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797728</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1901.695539989114</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,37 +5969,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6069,25 +6069,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459564</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>599.6019060180495</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>599.6019060180495</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>451.6888124356564</v>
       </c>
       <c r="F25" t="n">
         <v>402.7245934908939</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817744</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919726</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761961</v>
       </c>
     </row>
     <row r="26">
@@ -6206,19 +6206,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6312,19 +6312,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400695</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400695</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277338</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>215.8238677453406</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>215.8238677453406</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6452,16 +6452,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>214.9229991561138</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>710.2486053718725</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6655,16 +6655,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,10 +6680,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6695,16 +6695,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.0191461778176</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2433.290346126879</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2250.435511781783</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2030.834046804724</v>
+        <v>1977.461080510502</v>
       </c>
       <c r="U34" t="n">
-        <v>1741.758820148922</v>
+        <v>1688.3858538547</v>
       </c>
       <c r="V34" t="n">
-        <v>1487.074331943035</v>
+        <v>1433.701365648813</v>
       </c>
       <c r="W34" t="n">
-        <v>1197.657161906075</v>
+        <v>1144.284195611852</v>
       </c>
       <c r="X34" t="n">
-        <v>969.6676110080573</v>
+        <v>916.2946447138347</v>
       </c>
       <c r="Y34" t="n">
-        <v>969.6676110080573</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="35">
@@ -6941,16 +6941,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>620.8230468926974</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D37" t="n">
-        <v>470.7064074803617</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E37" t="n">
-        <v>322.7933138979686</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>2283.159972732779</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7375,7 +7375,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7406,7 +7406,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7731,22 +7731,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8140,19 +8140,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457084</v>
+        <v>152.8089368603743</v>
       </c>
       <c r="N4" t="n">
-        <v>99.67938739116983</v>
+        <v>163.8604018711118</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>63.37360602116058</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>180.3980153007106</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>93.05287845629886</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>85.55322963884024</v>
+        <v>219.1506330802276</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>202.570919634873</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.32522655688301</v>
+        <v>30.32522655688277</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>66.3624843553866</v>
       </c>
       <c r="G13" t="n">
-        <v>71.22040037418694</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182169</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G16" t="n">
-        <v>117.6820817884491</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>85.96822242532454</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>111.2104624337834</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>86.46557462472418</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,13 +24181,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>211.1765892730651</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,16 +24364,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>96.9464712676164</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>126.0028419604393</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>52.83923663127389</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>203.6630665685177</v>
       </c>
     </row>
     <row r="35">
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>37.12601365260466</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016463</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>25.74504007796142</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182139</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>211.9838267404999</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>73.65209508333268</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26077,13 +26077,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>886290.4889038962</v>
+        <v>886290.4889038963</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>860922.6969047773</v>
+        <v>860922.6969047774</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>860922.6969047774</v>
+        <v>860922.6969047775</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>860922.6969047774</v>
+        <v>860922.6969047775</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>860922.6969047773</v>
+        <v>860922.6969047774</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>860922.6969047773</v>
+        <v>860922.6969047772</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>860922.6969047774</v>
+        <v>860922.6969047773</v>
       </c>
     </row>
     <row r="15">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049981</v>
+      </c>
+      <c r="C2" t="n">
+        <v>574729.2389049985</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.2389049982</v>
       </c>
-      <c r="C2" t="n">
-        <v>574729.2389049986</v>
-      </c>
-      <c r="D2" t="n">
-        <v>574729.2389049983</v>
-      </c>
       <c r="E2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="G2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="H2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="I2" t="n">
         <v>565002.6197830045</v>
@@ -26338,19 +26338,19 @@
         <v>565002.6197830045</v>
       </c>
       <c r="K2" t="n">
+        <v>565002.6197830047</v>
+      </c>
+      <c r="L2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="M2" t="n">
         <v>565002.6197830046</v>
       </c>
-      <c r="L2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="M2" t="n">
-        <v>565002.6197830044</v>
-      </c>
       <c r="N2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="P2" t="n">
         <v>565002.6197830045</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>259123.8056778329</v>
+        <v>259123.8056778326</v>
       </c>
       <c r="D3" t="n">
-        <v>138712.7919296915</v>
+        <v>138712.7919296937</v>
       </c>
       <c r="E3" t="n">
-        <v>589678.792174574</v>
+        <v>589678.7921745717</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.9447285446</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>60247.15959153567</v>
+        <v>60247.15959153561</v>
       </c>
       <c r="L3" t="n">
-        <v>33617.87336484322</v>
+        <v>33617.87336484377</v>
       </c>
       <c r="M3" t="n">
-        <v>154073.8510167271</v>
+        <v>154073.8510167266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278169.1766632064</v>
+        <v>278169.1766632063</v>
       </c>
       <c r="C4" t="n">
         <v>209253.9124355573</v>
       </c>
       <c r="D4" t="n">
-        <v>170385.5244296186</v>
+        <v>170385.5244296179</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685511</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685508</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685511</v>
       </c>
       <c r="H4" t="n">
         <v>14216.75207685505</v>
@@ -26442,16 +26442,16 @@
         <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685503</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685499</v>
       </c>
       <c r="M4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685503</v>
       </c>
       <c r="O4" t="n">
         <v>14216.75207685505</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
         <v>75611.38525919238</v>
       </c>
       <c r="D5" t="n">
-        <v>86168.04029969315</v>
+        <v>86168.04029969333</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-351782.6406906672</v>
+        <v>-351782.6406906675</v>
       </c>
       <c r="C6" t="n">
-        <v>30740.13553241608</v>
+        <v>30740.13553241623</v>
       </c>
       <c r="D6" t="n">
-        <v>179462.8822459951</v>
+        <v>179462.8822459932</v>
       </c>
       <c r="E6" t="n">
-        <v>-140015.4542923319</v>
+        <v>-140050.1922177652</v>
       </c>
       <c r="F6" t="n">
-        <v>449663.3378822423</v>
+        <v>449628.5999568067</v>
       </c>
       <c r="G6" t="n">
-        <v>449663.3378822423</v>
+        <v>449628.5999568063</v>
       </c>
       <c r="H6" t="n">
-        <v>449663.3378822422</v>
+        <v>449628.5999568066</v>
       </c>
       <c r="I6" t="n">
-        <v>449663.3378822423</v>
+        <v>449628.5999568066</v>
       </c>
       <c r="J6" t="n">
-        <v>400598.3931536977</v>
+        <v>400563.655228262</v>
       </c>
       <c r="K6" t="n">
-        <v>389416.1782907068</v>
+        <v>389381.4403652712</v>
       </c>
       <c r="L6" t="n">
-        <v>416045.4645173989</v>
+        <v>416010.7265919628</v>
       </c>
       <c r="M6" t="n">
-        <v>295589.4868655151</v>
+        <v>295554.7489400802</v>
       </c>
       <c r="N6" t="n">
-        <v>449663.3378822422</v>
+        <v>449628.5999568066</v>
       </c>
       <c r="O6" t="n">
-        <v>449663.3378822423</v>
+        <v>449628.5999568067</v>
       </c>
       <c r="P6" t="n">
-        <v>449663.3378822423</v>
+        <v>449628.5999568066</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.022529435979809e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.022529435979809e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.022529435979809e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
         <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>863.771786179046</v>
+        <v>863.7717861790478</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
         <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>554.4443315952296</v>
+        <v>554.4443315952318</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.022529435979809e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-4.022529435979809e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>201.5110155847054</v>
+        <v>201.5110155847052</v>
       </c>
       <c r="D3" t="n">
-        <v>113.790829681436</v>
+        <v>113.7908296814378</v>
       </c>
       <c r="E3" t="n">
-        <v>504.2037141626278</v>
+        <v>504.2037141626257</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>234.0895511156619</v>
+        <v>234.0895511156617</v>
       </c>
       <c r="D4" t="n">
-        <v>132.8291933132479</v>
+        <v>132.82919331325</v>
       </c>
       <c r="E4" t="n">
-        <v>618.2639565044185</v>
+        <v>618.2639565044163</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156619</v>
+        <v>234.0895511156617</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132479</v>
+        <v>132.82919331325</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044185</v>
+        <v>618.2639565044163</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.022529435979809e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156619</v>
+        <v>234.0895511156617</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132479</v>
+        <v>132.82919331325</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044185</v>
+        <v>618.2639565044163</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>237.4168669630895</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399024</v>
+        <v>129.3682389399021</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988688</v>
+        <v>25.91829388988666</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>290.6404425531986</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27461,10 +27461,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,10 +27473,10 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714234</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>7.8840106256811</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.3381812437708</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>172.1008090791611</v>
+        <v>215.3002871593218</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27558,7 +27558,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>23.4337583055308</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845758</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>19.25466862917611</v>
       </c>
       <c r="T4" t="n">
         <v>223.7196734901001</v>
@@ -27594,13 +27594,13 @@
         <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>64.61205615750811</v>
+        <v>185.6955594239231</v>
       </c>
       <c r="W4" t="n">
-        <v>98.99741117027111</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>175.2093320752194</v>
+        <v>38.18406822271703</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,22 +27616,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>249.135087031192</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>94.24014755885166</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.3157839734241</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8976922291835</v>
+        <v>110.4439161910311</v>
       </c>
       <c r="U5" t="n">
         <v>251.1044530022292</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27695,25 +27695,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H6" t="n">
         <v>96.65565115906497</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.85559031833734</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,13 +27746,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6625353078282</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8352527003384</v>
+        <v>145.1425840639922</v>
       </c>
       <c r="V6" t="n">
-        <v>57.73922104925305</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H7" t="n">
-        <v>76.16695116918203</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I7" t="n">
         <v>114.7793764994862</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.4475243713015</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.245260737819</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>143.1238942400251</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>363.0382162824867</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9125797832801</v>
+        <v>303.91257978328</v>
       </c>
       <c r="I8" t="n">
-        <v>76.60428439787253</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.8916290734614</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>153.5022067002171</v>
       </c>
       <c r="U8" t="n">
         <v>251.0678569565025</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27935,22 +27935,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>16.39602219799943</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4855929438821</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29180769719213</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>25.42862793155176</v>
+        <v>25.42862793155162</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,7 +27980,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>89.33291440571861</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>110.3946636809737</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,16 +28020,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4333581046933</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.3785035421427</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>108.608555768565</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2570757305865</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>196.8715076418046</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>221.290298616738</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>246.42472674208</v>
+        <v>286.2340681971946</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>7.232467498460179e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28488,7 +28488,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -28561,13 +28561,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>3.001538328229297e-12</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30192,7 +30192,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>-3.220922302743453e-13</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30384,7 +30384,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-1.33561557719332e-13</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -31042,46 +31042,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31118,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31133,34 +31133,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31221,25 +31221,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.472449391674554</v>
+        <v>3.472449391674561</v>
       </c>
       <c r="H8" t="n">
-        <v>35.56222233248704</v>
+        <v>35.56222233248711</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8716051725334</v>
+        <v>133.8716051725337</v>
       </c>
       <c r="J8" t="n">
-        <v>294.7198015566385</v>
+        <v>294.7198015566391</v>
       </c>
       <c r="K8" t="n">
-        <v>441.7085843062224</v>
+        <v>441.7085843062234</v>
       </c>
       <c r="L8" t="n">
-        <v>547.9785573766827</v>
+        <v>547.9785573766839</v>
       </c>
       <c r="M8" t="n">
-        <v>609.731729245875</v>
+        <v>609.7317292458763</v>
       </c>
       <c r="N8" t="n">
-        <v>619.5978260799703</v>
+        <v>619.5978260799717</v>
       </c>
       <c r="O8" t="n">
-        <v>585.0686574415065</v>
+        <v>585.0686574415078</v>
       </c>
       <c r="P8" t="n">
-        <v>499.3425630845409</v>
+        <v>499.3425630845419</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9854692451958</v>
+        <v>374.9854692451966</v>
       </c>
       <c r="R8" t="n">
-        <v>218.1262490997769</v>
+        <v>218.1262490997774</v>
       </c>
       <c r="S8" t="n">
-        <v>79.12844051278398</v>
+        <v>79.12844051278415</v>
       </c>
       <c r="T8" t="n">
-        <v>15.20064721205537</v>
+        <v>15.2006472120554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777959513339643</v>
+        <v>0.2777959513339648</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857924219328514</v>
+        <v>1.857924219328518</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94363653930434</v>
+        <v>17.94363653930438</v>
       </c>
       <c r="I9" t="n">
-        <v>63.96800491986332</v>
+        <v>63.96800491986345</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5330947743664</v>
+        <v>175.5330947743667</v>
       </c>
       <c r="K9" t="n">
-        <v>300.0140174693768</v>
+        <v>300.0140174693774</v>
       </c>
       <c r="L9" t="n">
-        <v>403.4058705169215</v>
+        <v>403.4058705169223</v>
       </c>
       <c r="M9" t="n">
-        <v>470.75562346758</v>
+        <v>470.755623467581</v>
       </c>
       <c r="N9" t="n">
-        <v>483.215124043691</v>
+        <v>483.2151240436921</v>
       </c>
       <c r="O9" t="n">
-        <v>442.0474347627803</v>
+        <v>442.0474347627812</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7820379873897</v>
+        <v>354.7820379873904</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1623968391977</v>
+        <v>237.1623968391982</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3542774070809</v>
+        <v>115.3542774070812</v>
       </c>
       <c r="S9" t="n">
-        <v>34.51012749498356</v>
+        <v>34.51012749498364</v>
       </c>
       <c r="T9" t="n">
-        <v>7.488738410363613</v>
+        <v>7.488738410363629</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222318565347707</v>
+        <v>0.122231856534771</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557621253765493</v>
+        <v>1.557621253765496</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84866896529685</v>
+        <v>13.84866896529687</v>
       </c>
       <c r="I10" t="n">
-        <v>46.84191915869319</v>
+        <v>46.84191915869329</v>
       </c>
       <c r="J10" t="n">
-        <v>110.1238226412203</v>
+        <v>110.1238226412206</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9672693011181</v>
+        <v>180.9672693011185</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5757998552806</v>
+        <v>231.5757998552811</v>
       </c>
       <c r="M10" t="n">
-        <v>244.164211624349</v>
+        <v>244.1642116243495</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3585324057687</v>
+        <v>238.3585324057692</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1626841231444</v>
+        <v>220.1626841231449</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3872105463282</v>
+        <v>188.3872105463286</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.429539713036</v>
+        <v>130.4295397130362</v>
       </c>
       <c r="R10" t="n">
-        <v>70.03631564658295</v>
+        <v>70.03631564658309</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14509039516771</v>
+        <v>27.14509039516777</v>
       </c>
       <c r="T10" t="n">
-        <v>6.655290811543467</v>
+        <v>6.65529081154348</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08496115929629969</v>
+        <v>0.08496115929629987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,34 +31841,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630686</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32072,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>512.9101366533187</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>303.4024373464761</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32546,10 +32546,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32558,13 +32558,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>560.1612034965808</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32573,7 +32573,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,7 +32789,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305194</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>171.5999003578897</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,28 +33257,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>258.3858318060507</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>691.6611968462892</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,7 +33734,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>162.5000833330458</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>750.6021172789107</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,10 +34126,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34208,13 +34208,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34451,25 +34451,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062401</v>
+        <v>92.63945645062405</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663199</v>
+        <v>168.9203199809859</v>
       </c>
       <c r="N4" t="n">
-        <v>123.3445726863781</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>116.8989542469473</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>88.94484524048465</v>
+        <v>25.57123921932407</v>
       </c>
       <c r="K6" t="n">
         <v>122.6495881517968</v>
@@ -35027,13 +35027,13 @@
         <v>288.2160307407402</v>
       </c>
       <c r="O6" t="n">
-        <v>241.2171229812712</v>
+        <v>421.6151382819818</v>
       </c>
       <c r="P6" t="n">
-        <v>174.0696575289995</v>
+        <v>267.1225359852983</v>
       </c>
       <c r="Q6" t="n">
-        <v>276.0148132527186</v>
+        <v>65.9375255168695</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6738970299522</v>
+        <v>113.6738970299528</v>
       </c>
       <c r="K8" t="n">
-        <v>221.6187332612419</v>
+        <v>221.6187332612428</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2121424066955</v>
+        <v>312.2121424066966</v>
       </c>
       <c r="M8" t="n">
-        <v>379.3854960186023</v>
+        <v>379.3854960186036</v>
       </c>
       <c r="N8" t="n">
-        <v>390.1847624833794</v>
+        <v>390.1847624833808</v>
       </c>
       <c r="O8" t="n">
-        <v>354.9704460198197</v>
+        <v>354.970446019821</v>
       </c>
       <c r="P8" t="n">
-        <v>268.1095673292713</v>
+        <v>268.1095673292724</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6797793707463</v>
+        <v>152.6797793707471</v>
       </c>
       <c r="R8" t="n">
-        <v>2.54071128564479</v>
+        <v>2.540711285645244</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>174.7865034481085</v>
+        <v>48.69546810770004</v>
       </c>
       <c r="K9" t="n">
-        <v>247.725808133858</v>
+        <v>381.323211575246</v>
       </c>
       <c r="L9" t="n">
-        <v>264.8514907370473</v>
+        <v>264.8514907370482</v>
       </c>
       <c r="M9" t="n">
-        <v>328.6215895455617</v>
+        <v>328.6215895455627</v>
       </c>
       <c r="N9" t="n">
-        <v>351.8734119603578</v>
+        <v>554.4443315952318</v>
       </c>
       <c r="O9" t="n">
-        <v>299.4511903183358</v>
+        <v>299.4511903183367</v>
       </c>
       <c r="P9" t="n">
-        <v>220.8076305730594</v>
+        <v>220.8076305730602</v>
       </c>
       <c r="Q9" t="n">
-        <v>307.2579104890253</v>
+        <v>97.18062275317669</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.76464252454754</v>
+        <v>16.76464252454778</v>
       </c>
       <c r="K10" t="n">
-        <v>158.6977774752353</v>
+        <v>158.6977774752356</v>
       </c>
       <c r="L10" t="n">
-        <v>259.1658251155968</v>
+        <v>259.1658251155973</v>
       </c>
       <c r="M10" t="n">
-        <v>283.7480885861895</v>
+        <v>283.7480885861901</v>
       </c>
       <c r="N10" t="n">
-        <v>282.4907047849973</v>
+        <v>282.4907047849978</v>
       </c>
       <c r="O10" t="n">
-        <v>244.7478120371841</v>
+        <v>244.7478120371846</v>
       </c>
       <c r="P10" t="n">
-        <v>185.6657698112217</v>
+        <v>185.6657698112221</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.26749646134157</v>
+        <v>44.26749646134182</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831944</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>370.3138922088742</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>165.5609983721171</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36060,7 +36060,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572999014</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36206,13 +36206,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36221,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096333</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
         <v>394.3420143191314</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561604</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>29.46586643587134</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,28 +36905,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>120.5443928316917</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>560.3194847629559</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>23.94570355317166</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>619.2604051955774</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,10 +37774,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
